--- a/手板报价单.xlsx
+++ b/手板报价单.xlsx
@@ -106,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -123,21 +123,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -145,6 +130,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1460,34 +1448,34 @@
       </c>
     </row>
     <row r="17" ht="65" customHeight="1">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr"/>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr"/>
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>电池盖</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E17" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="n">
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <f>F17*G17</f>
         <v/>
       </c>
@@ -1526,34 +1514,34 @@
       </c>
     </row>
     <row r="19" ht="65" customHeight="1">
-      <c r="A19" s="11" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr"/>
-      <c r="C19" s="12" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr"/>
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t>按键1</t>
         </is>
       </c>
-      <c r="D19" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E19" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="n">
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="10">
         <f>F19*G19</f>
         <v/>
       </c>
@@ -1592,34 +1580,34 @@
       </c>
     </row>
     <row r="21" ht="65" customHeight="1">
-      <c r="A21" s="11" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="B21" s="11" t="inlineStr"/>
-      <c r="C21" s="12" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr"/>
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>按键3</t>
         </is>
       </c>
-      <c r="D21" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E21" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="n">
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <f>F21*G21</f>
         <v/>
       </c>
@@ -1658,34 +1646,34 @@
       </c>
     </row>
     <row r="23" ht="65" customHeight="1">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="B23" s="11" t="inlineStr"/>
-      <c r="C23" s="12" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr"/>
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>电源板</t>
         </is>
       </c>
-      <c r="D23" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E23" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="n">
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="10">
         <f>F23*G23</f>
         <v/>
       </c>
@@ -1724,34 +1712,34 @@
       </c>
     </row>
     <row r="25" ht="65" customHeight="1">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B25" s="11" t="inlineStr"/>
-      <c r="C25" s="12" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr"/>
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t>负极接线片</t>
         </is>
       </c>
-      <c r="D25" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E25" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="n">
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <f>F25*G25</f>
         <v/>
       </c>
@@ -1790,34 +1778,34 @@
       </c>
     </row>
     <row r="27" ht="65" customHeight="1">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B27" s="11" t="inlineStr"/>
-      <c r="C27" s="12" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr"/>
+      <c r="C27" s="7" t="inlineStr">
         <is>
           <t>激光装饰片</t>
         </is>
       </c>
-      <c r="D27" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E27" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="n">
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="10">
         <f>F27*G27</f>
         <v/>
       </c>
@@ -1856,34 +1844,34 @@
       </c>
     </row>
     <row r="29" ht="65" customHeight="1">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B29" s="11" t="inlineStr"/>
-      <c r="C29" s="12" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr"/>
+      <c r="C29" s="7" t="inlineStr">
         <is>
           <t>镜头转接件1</t>
         </is>
       </c>
-      <c r="D29" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E29" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="n">
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="10">
         <f>F29*G29</f>
         <v/>
       </c>
@@ -1922,34 +1910,34 @@
       </c>
     </row>
     <row r="31" ht="65" customHeight="1">
-      <c r="A31" s="11" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B31" s="11" t="inlineStr"/>
-      <c r="C31" s="12" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr"/>
+      <c r="C31" s="7" t="inlineStr">
         <is>
           <t>镜头转接件3</t>
         </is>
       </c>
-      <c r="D31" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E31" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F31" s="13" t="n">
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="10">
         <f>F31*G31</f>
         <v/>
       </c>
@@ -1988,34 +1976,34 @@
       </c>
     </row>
     <row r="33" ht="65" customHeight="1">
-      <c r="A33" s="11" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B33" s="11" t="inlineStr"/>
-      <c r="C33" s="12" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr"/>
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>散热板</t>
         </is>
       </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E33" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="n">
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="10">
         <f>F33*G33</f>
         <v/>
       </c>
@@ -2054,34 +2042,34 @@
       </c>
     </row>
     <row r="35" ht="65" customHeight="1">
-      <c r="A35" s="11" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr"/>
-      <c r="C35" s="12" t="inlineStr">
+      <c r="B35" s="6" t="inlineStr"/>
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>探测器板</t>
         </is>
       </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="10">
         <f>F35*G35</f>
         <v/>
       </c>
@@ -2120,34 +2108,34 @@
       </c>
     </row>
     <row r="37" ht="65" customHeight="1">
-      <c r="A37" s="11" t="inlineStr">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B37" s="11" t="inlineStr"/>
-      <c r="C37" s="12" t="inlineStr">
+      <c r="B37" s="6" t="inlineStr"/>
+      <c r="C37" s="7" t="inlineStr">
         <is>
           <t>显示屏后壳</t>
         </is>
       </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="10">
         <f>F37*G37</f>
         <v/>
       </c>
@@ -2186,34 +2174,34 @@
       </c>
     </row>
     <row r="39" ht="65" customHeight="1">
-      <c r="A39" s="11" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B39" s="11" t="inlineStr"/>
-      <c r="C39" s="12" t="inlineStr">
+      <c r="B39" s="6" t="inlineStr"/>
+      <c r="C39" s="7" t="inlineStr">
         <is>
           <t>左饰片</t>
         </is>
       </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="10">
         <f>F39*G39</f>
         <v/>
       </c>
@@ -2252,34 +2240,34 @@
       </c>
     </row>
     <row r="41" ht="65" customHeight="1">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B41" s="11" t="inlineStr"/>
-      <c r="C41" s="12" t="inlineStr">
+      <c r="B41" s="6" t="inlineStr"/>
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>装饰片2</t>
         </is>
       </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="10">
         <f>F41*G41</f>
         <v/>
       </c>
@@ -2318,34 +2306,34 @@
       </c>
     </row>
     <row r="43" ht="65" customHeight="1">
-      <c r="A43" s="11" t="inlineStr">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="B43" s="11" t="inlineStr"/>
-      <c r="C43" s="12" t="inlineStr">
+      <c r="B43" s="6" t="inlineStr"/>
+      <c r="C43" s="7" t="inlineStr">
         <is>
           <t>转轴座</t>
         </is>
       </c>
-      <c r="D43" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="10">
         <f>F43*G43</f>
         <v/>
       </c>
@@ -2384,45 +2372,45 @@
       </c>
     </row>
     <row r="45" ht="65" customHeight="1">
-      <c r="A45" s="11" t="inlineStr">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B45" s="11" t="inlineStr"/>
-      <c r="C45" s="12" t="inlineStr">
+      <c r="B45" s="6" t="inlineStr"/>
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t>主壳体</t>
         </is>
       </c>
-      <c r="D45" s="12" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E45" s="12" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="n">
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="10">
         <f>F45*G45</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="35" customHeight="1">
-      <c r="A47" s="15" t="inlineStr">
+      <c r="A47" s="11" t="inlineStr">
         <is>
           <t>小计</t>
         </is>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="12">
         <f>SUM(H16:H45)</f>
         <v/>
       </c>
@@ -2435,56 +2423,56 @@
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="17" t="inlineStr">
+      <c r="A51" s="13" t="inlineStr">
         <is>
           <t>• 付款方式: 月结30天</t>
         </is>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="18" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>• 交货期: 确认后 (     ) 个工作日内完成</t>
         </is>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
-      <c r="A53" s="17" t="inlineStr">
+      <c r="A53" s="13" t="inlineStr">
         <is>
           <t>• 验收标准: 依据甲方2D、3D图纸及说明文档进行验收</t>
         </is>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
-      <c r="A54" s="17" t="inlineStr">
+      <c r="A54" s="13" t="inlineStr">
         <is>
           <t>• 本报价单适用于杭州海康威视科技有限公司及其子公司、关联公司</t>
         </is>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
-      <c r="A55" s="17" t="inlineStr">
+      <c r="A55" s="13" t="inlineStr">
         <is>
           <t>• 报价有效期: 30天</t>
         </is>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
-      <c r="A56" s="17" t="inlineStr">
+      <c r="A56" s="13" t="inlineStr">
         <is>
           <t>• 所有价格均为人民币不含税价格</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
-      <c r="F59" s="19" t="inlineStr">
+      <c r="F59" s="15" t="inlineStr">
         <is>
           <t>乙方签名确认</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" s="20" t="inlineStr">
+      <c r="F61" s="16" t="inlineStr">
         <is>
           <t>________________________</t>
         </is>

--- a/手板报价单.xlsx
+++ b/手板报价单.xlsx
@@ -68,18 +68,12 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -114,14 +108,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -132,7 +138,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -141,13 +147,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1344,28 +1347,28 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>乙方公司: 杭州越依模型科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>联系人: 傅士勤</t>
         </is>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>电话: 137 7747 9066</t>
         </is>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>地址: 杭州市富阳区东洲工业功能区1号路11号</t>
         </is>
@@ -1373,1044 +1376,1044 @@
     </row>
     <row r="14" ht="25" customHeight="1"/>
     <row r="15" ht="35" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>零件图片</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>零件名称</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>表面处理</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>材质</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>单价(未税)</t>
         </is>
       </c>
-      <c r="H15" s="5" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>总价(未税)</t>
         </is>
       </c>
     </row>
     <row r="16" ht="65" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr"/>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr"/>
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>电池仓</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
         <f>F16*G16</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="65" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr"/>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>电池盖</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
         <f>F17*G17</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="65" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr"/>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr"/>
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>前壳</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
         <f>F18*G18</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="65" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr"/>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr"/>
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>按键1</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E19" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
         <f>F19*G19</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="65" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr"/>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr"/>
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>按键2</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
         <f>F20*G20</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="65" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr"/>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>按键3</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="D21" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
         <f>F21*G21</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="65" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>07</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr"/>
-      <c r="C22" s="7" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr"/>
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>按键板</t>
         </is>
       </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
         <f>F22*G22</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="65" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="B23" s="6" t="inlineStr"/>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>电源板</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="D23" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
         <f>F23*G23</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="65" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>09</t>
         </is>
       </c>
-      <c r="B24" s="6" t="inlineStr"/>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr"/>
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>负极簧片</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
         <f>F24*G24</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="65" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B25" s="6" t="inlineStr"/>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr"/>
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>负极接线片</t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="D25" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
         <f>F25*G25</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="65" customHeight="1">
-      <c r="A26" s="6" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr"/>
-      <c r="C26" s="7" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr"/>
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>接口板</t>
         </is>
       </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
         <f>F26*G26</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="65" customHeight="1">
-      <c r="A27" s="6" t="inlineStr">
+      <c r="A27" s="10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr"/>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr"/>
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>激光装饰片</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="D27" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
         <f>F27*G27</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="65" customHeight="1">
-      <c r="A28" s="6" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr"/>
-      <c r="C28" s="7" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr"/>
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>镜头</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
         <f>F28*G28</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="65" customHeight="1">
-      <c r="A29" s="6" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B29" s="6" t="inlineStr"/>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>镜头转接件1</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="D29" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
         <f>F29*G29</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="65" customHeight="1">
-      <c r="A30" s="6" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B30" s="6" t="inlineStr"/>
-      <c r="C30" s="7" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr"/>
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>镜头转接件2</t>
         </is>
       </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
         <f>F30*G30</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="65" customHeight="1">
-      <c r="A31" s="6" t="inlineStr">
+      <c r="A31" s="10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B31" s="6" t="inlineStr"/>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="B31" s="10" t="inlineStr"/>
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>镜头转接件3</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="D31" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
         <f>F31*G31</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="65" customHeight="1">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr"/>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr"/>
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>机芯支架</t>
         </is>
       </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
         <f>F32*G32</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="65" customHeight="1">
-      <c r="A33" s="6" t="inlineStr">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B33" s="6" t="inlineStr"/>
-      <c r="C33" s="7" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>散热板</t>
         </is>
       </c>
-      <c r="D33" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="D33" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f>F33*G33</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="65" customHeight="1">
-      <c r="A34" s="6" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B34" s="6" t="inlineStr"/>
-      <c r="C34" s="7" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr"/>
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>手柄</t>
         </is>
       </c>
-      <c r="D34" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F34" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
         <f>F34*G34</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="65" customHeight="1">
-      <c r="A35" s="6" t="inlineStr">
+      <c r="A35" s="10" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B35" s="6" t="inlineStr"/>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr"/>
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>探测器板</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
+      <c r="D35" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
         <f>F35*G35</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="65" customHeight="1">
-      <c r="A36" s="6" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B36" s="6" t="inlineStr"/>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr"/>
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>显示屏</t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
         <f>F36*G36</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="65" customHeight="1">
-      <c r="A37" s="6" t="inlineStr">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B37" s="6" t="inlineStr"/>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr"/>
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>显示屏后壳</t>
         </is>
       </c>
-      <c r="D37" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
+      <c r="D37" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
         <f>F37*G37</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="65" customHeight="1">
-      <c r="A38" s="6" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B38" s="6" t="inlineStr"/>
-      <c r="C38" s="7" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr"/>
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>右饰片</t>
         </is>
       </c>
-      <c r="D38" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E38" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F38" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
         <f>F38*G38</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="65" customHeight="1">
-      <c r="A39" s="6" t="inlineStr">
+      <c r="A39" s="10" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B39" s="6" t="inlineStr"/>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr"/>
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>左饰片</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E39" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F39" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
+      <c r="D39" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E39" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <f>F39*G39</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="65" customHeight="1">
-      <c r="A40" s="6" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B40" s="6" t="inlineStr"/>
-      <c r="C40" s="7" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr"/>
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>装饰片1</t>
         </is>
       </c>
-      <c r="D40" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F40" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
         <f>F40*G40</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="65" customHeight="1">
-      <c r="A41" s="6" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B41" s="6" t="inlineStr"/>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr"/>
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>装饰片2</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F41" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10">
+      <c r="D41" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
         <f>F41*G41</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="65" customHeight="1">
-      <c r="A42" s="6" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B42" s="6" t="inlineStr"/>
-      <c r="C42" s="7" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr"/>
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>转接座</t>
         </is>
       </c>
-      <c r="D42" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E42" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F42" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
         <f>F42*G42</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="65" customHeight="1">
-      <c r="A43" s="6" t="inlineStr">
+      <c r="A43" s="10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="B43" s="6" t="inlineStr"/>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr"/>
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>转轴座</t>
         </is>
       </c>
-      <c r="D43" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E43" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F43" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10">
+      <c r="D43" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E43" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
         <f>F43*G43</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="65" customHeight="1">
-      <c r="A44" s="6" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="B44" s="6" t="inlineStr"/>
-      <c r="C44" s="7" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr"/>
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>主板</t>
         </is>
       </c>
-      <c r="D44" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E44" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F44" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10">
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
         <f>F44*G44</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="65" customHeight="1">
-      <c r="A45" s="6" t="inlineStr">
+      <c r="A45" s="10" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B45" s="6" t="inlineStr"/>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="B45" s="10" t="inlineStr"/>
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>主壳体</t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E45" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F45" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
+      <c r="D45" s="11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E45" s="11" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
         <f>F45*G45</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="35" customHeight="1">
-      <c r="A47" s="11" t="inlineStr">
+      <c r="A47" s="15" t="inlineStr">
         <is>
           <t>小计</t>
         </is>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="16">
         <f>SUM(H16:H45)</f>
         <v/>
       </c>
@@ -2423,56 +2426,56 @@
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="13" t="inlineStr">
+      <c r="A51" s="17" t="inlineStr">
         <is>
           <t>• 付款方式: 月结30天</t>
         </is>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="14" t="inlineStr">
+      <c r="A52" s="17" t="inlineStr">
         <is>
           <t>• 交货期: 确认后 (     ) 个工作日内完成</t>
         </is>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
-      <c r="A53" s="13" t="inlineStr">
+      <c r="A53" s="17" t="inlineStr">
         <is>
           <t>• 验收标准: 依据甲方2D、3D图纸及说明文档进行验收</t>
         </is>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
-      <c r="A54" s="13" t="inlineStr">
+      <c r="A54" s="17" t="inlineStr">
         <is>
           <t>• 本报价单适用于杭州海康威视科技有限公司及其子公司、关联公司</t>
         </is>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
-      <c r="A55" s="13" t="inlineStr">
+      <c r="A55" s="17" t="inlineStr">
         <is>
           <t>• 报价有效期: 30天</t>
         </is>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
-      <c r="A56" s="13" t="inlineStr">
+      <c r="A56" s="17" t="inlineStr">
         <is>
           <t>• 所有价格均为人民币不含税价格</t>
         </is>
       </c>
     </row>
     <row r="59" ht="25" customHeight="1">
-      <c r="F59" s="15" t="inlineStr">
+      <c r="F59" s="18" t="inlineStr">
         <is>
           <t>乙方签名确认</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" s="16" t="inlineStr">
+      <c r="F61" s="19" t="inlineStr">
         <is>
           <t>________________________</t>
         </is>
